--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.79650683028784</v>
+        <v>101.5402238934286</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.5493451354678</v>
+        <v>138.9318139694517</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.99867079274745</v>
+        <v>125.6723566362702</v>
       </c>
       <c r="AD2" t="n">
-        <v>80796.50683028784</v>
+        <v>101540.2238934286</v>
       </c>
       <c r="AE2" t="n">
-        <v>110549.3451354678</v>
+        <v>138931.8139694517</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.938672207356896e-06</v>
+        <v>8.349070404690156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.101080246913581</v>
       </c>
       <c r="AH2" t="n">
-        <v>99998.67079274745</v>
+        <v>125672.3566362702</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.32561017287764</v>
+        <v>69.74018388600936</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.17191709970548</v>
+        <v>95.42159631257043</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.4249832572297</v>
+        <v>86.31469308557377</v>
       </c>
       <c r="AD3" t="n">
-        <v>59325.61017287764</v>
+        <v>69740.18388600936</v>
       </c>
       <c r="AE3" t="n">
-        <v>81171.91709970548</v>
+        <v>95421.59631257043</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.193389156068185e-06</v>
+        <v>1.047023166077502e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.271604938271605</v>
       </c>
       <c r="AH3" t="n">
-        <v>73424.9832572297</v>
+        <v>86314.69308557376</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.40363565516727</v>
+        <v>80.58477134288727</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.64691912370114</v>
+        <v>110.2596393004961</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.75921315823405</v>
+        <v>99.7366140760606</v>
       </c>
       <c r="AD2" t="n">
-        <v>60403.63565516727</v>
+        <v>80584.77134288727</v>
       </c>
       <c r="AE2" t="n">
-        <v>82646.91912370114</v>
+        <v>110259.6393004961</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.878076323252565e-06</v>
+        <v>1.017959971790808e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.564814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>74759.21315823405</v>
+        <v>99736.61407606061</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.65518874566088</v>
+        <v>66.74584609807192</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.51812869231064</v>
+        <v>91.3246112502565</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.11990728731125</v>
+        <v>82.6087185274511</v>
       </c>
       <c r="AD3" t="n">
-        <v>56655.18874566088</v>
+        <v>66745.84609807192</v>
       </c>
       <c r="AE3" t="n">
-        <v>77518.12869231064</v>
+        <v>91324.61125025649</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.453317532116338e-06</v>
+        <v>1.117579727055207e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.248456790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>70119.90728731125</v>
+        <v>82608.7185274511</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.38411945387863</v>
+        <v>69.61485067930911</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.3060191441327</v>
+        <v>95.2501098898524</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.59611135214978</v>
+        <v>86.15957308635718</v>
       </c>
       <c r="AD2" t="n">
-        <v>51384.11945387862</v>
+        <v>69614.85067930911</v>
       </c>
       <c r="AE2" t="n">
-        <v>70306.0191441327</v>
+        <v>95250.10988985239</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.584963258971982e-06</v>
+        <v>1.246016750237191e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.553240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>63596.11135214978</v>
+        <v>86159.57308635718</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.02114198847297</v>
+        <v>71.84381134582543</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.5458655963007</v>
+        <v>98.29987220858298</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.62219000256783</v>
+        <v>88.91827036975738</v>
       </c>
       <c r="AD2" t="n">
-        <v>53021.14198847297</v>
+        <v>71843.81134582542</v>
       </c>
       <c r="AE2" t="n">
-        <v>72545.8655963007</v>
+        <v>98299.87220858298</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.659322287881081e-06</v>
+        <v>1.213183897166602e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.36033950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>65622.19000256783</v>
+        <v>88918.27036975737</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.58035413452757</v>
+        <v>68.18565406866198</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.20627197457385</v>
+        <v>93.29462003546145</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.60132250894844</v>
+        <v>84.39071243912144</v>
       </c>
       <c r="AD2" t="n">
-        <v>50580.35413452757</v>
+        <v>68185.65406866197</v>
       </c>
       <c r="AE2" t="n">
-        <v>69206.27197457386</v>
+        <v>93294.62003546146</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.32777905694603e-06</v>
+        <v>1.240040813824276e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.838734567901234</v>
       </c>
       <c r="AH2" t="n">
-        <v>62601.32250894844</v>
+        <v>84390.71243912145</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.73797642383368</v>
+        <v>83.08938940386557</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.84086714723539</v>
+        <v>113.6865682274753</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.6483352651374</v>
+        <v>102.836481715975</v>
       </c>
       <c r="AD2" t="n">
-        <v>62737.97642383368</v>
+        <v>83089.38940386557</v>
       </c>
       <c r="AE2" t="n">
-        <v>85840.86714723539</v>
+        <v>113686.5682274753</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.629506272036572e-06</v>
+        <v>9.685459747356229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.688271604938272</v>
       </c>
       <c r="AH2" t="n">
-        <v>77648.3352651374</v>
+        <v>102836.481715975</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.4062866048487</v>
+        <v>66.5820826034157</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.17756980246412</v>
+        <v>91.10054281213245</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.81185085993415</v>
+        <v>82.40603486657952</v>
       </c>
       <c r="AD3" t="n">
-        <v>56406.2866048487</v>
+        <v>66582.08260341569</v>
       </c>
       <c r="AE3" t="n">
-        <v>77177.56980246412</v>
+        <v>91100.54281213245</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.542335153279417e-06</v>
+        <v>1.125596468300547e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.175154320987655</v>
       </c>
       <c r="AH3" t="n">
-        <v>69811.85085993416</v>
+        <v>82406.03486657952</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.19917624409774</v>
+        <v>76.34887586391949</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.99892462047762</v>
+        <v>104.4639002316557</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.26850093742286</v>
+        <v>94.49401220957765</v>
       </c>
       <c r="AD2" t="n">
-        <v>59199.17624409773</v>
+        <v>76348.87586391949</v>
       </c>
       <c r="AE2" t="n">
-        <v>80998.92462047763</v>
+        <v>104463.9002316557</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.052137200671926e-06</v>
+        <v>1.213247963997096e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.108796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>73268.50093742285</v>
+        <v>94494.01220957765</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.94857784087584</v>
+        <v>64.7629190937417</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.18306836202551</v>
+        <v>88.61148304236787</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.00770183767004</v>
+        <v>80.15452746782317</v>
       </c>
       <c r="AD2" t="n">
-        <v>54948.57784087584</v>
+        <v>64762.9190937417</v>
       </c>
       <c r="AE2" t="n">
-        <v>75183.06836202551</v>
+        <v>88611.48304236786</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.550790369171738e-06</v>
+        <v>1.160193651272719e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.294753086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>68007.70183767004</v>
+        <v>80154.52746782317</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.89871747426021</v>
+        <v>64.71305872712607</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.11484720873791</v>
+        <v>88.54326188908026</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.94599161550319</v>
+        <v>80.09281724565631</v>
       </c>
       <c r="AD3" t="n">
-        <v>54898.71747426021</v>
+        <v>64713.05872712607</v>
       </c>
       <c r="AE3" t="n">
-        <v>75114.84720873792</v>
+        <v>88543.26188908026</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.582025125178829e-06</v>
+        <v>1.165725558657364e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.279320987654321</v>
       </c>
       <c r="AH3" t="n">
-        <v>67945.99161550318</v>
+        <v>80092.8172456563</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.01509509226152</v>
+        <v>77.84888627932033</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.37881255056247</v>
+        <v>106.5162806577951</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.80301008961831</v>
+        <v>96.35051632838102</v>
       </c>
       <c r="AD2" t="n">
-        <v>58015.09509226152</v>
+        <v>77848.88627932033</v>
       </c>
       <c r="AE2" t="n">
-        <v>79378.81255056248</v>
+        <v>106516.2806577952</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.175558344061693e-06</v>
+        <v>1.076963450720252e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.425925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>71803.01008961831</v>
+        <v>96350.51632838103</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.19699897944006</v>
+        <v>66.1992801818166</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.89121324026176</v>
+        <v>90.57677565084991</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.55282376612433</v>
+        <v>81.93225530805779</v>
       </c>
       <c r="AD3" t="n">
-        <v>56196.99897944006</v>
+        <v>66199.2801818166</v>
       </c>
       <c r="AE3" t="n">
-        <v>76891.21324026176</v>
+        <v>90576.77565084992</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.472711738924225e-06</v>
+        <v>1.128784408064477e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.267746913580247</v>
       </c>
       <c r="AH3" t="n">
-        <v>69552.82376612433</v>
+        <v>81932.25530805779</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.84988809690387</v>
+        <v>98.69148235930827</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.83521021995301</v>
+        <v>135.0340401248636</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.97514805161924</v>
+        <v>122.1465808568484</v>
       </c>
       <c r="AD2" t="n">
-        <v>67849.88809690387</v>
+        <v>98691.48235930827</v>
       </c>
       <c r="AE2" t="n">
-        <v>92835.21021995301</v>
+        <v>135034.0401248636</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.139507848552332e-06</v>
+        <v>8.736822714570133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.973765432098766</v>
       </c>
       <c r="AH2" t="n">
-        <v>83975.14805161924</v>
+        <v>122146.5808568484</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.70127844080248</v>
+        <v>69.03879327320273</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.31767888030856</v>
+        <v>94.4619227329589</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.65227233456089</v>
+        <v>85.44660940548971</v>
       </c>
       <c r="AD3" t="n">
-        <v>58701.27844080247</v>
+        <v>69038.79327320273</v>
       </c>
       <c r="AE3" t="n">
-        <v>80317.67888030857</v>
+        <v>94461.92273295889</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.256028011644645e-06</v>
+        <v>1.063483299291384e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.263888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>72652.2723345609</v>
+        <v>85446.60940548971</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.60114110726268</v>
+        <v>72.64684162897821</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.33944597838365</v>
+        <v>99.39861366918782</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.34003218678207</v>
+        <v>89.91214948745576</v>
       </c>
       <c r="AD2" t="n">
-        <v>53601.14110726268</v>
+        <v>72646.8416289782</v>
       </c>
       <c r="AE2" t="n">
-        <v>73339.44597838365</v>
+        <v>99398.61366918782</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.647166124583251e-06</v>
+        <v>1.198641350763289e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.325617283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>66340.03218678207</v>
+        <v>89912.14948745577</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.72450689004864</v>
+        <v>70.05735568840869</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.77175225113413</v>
+        <v>95.85556476524533</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.01739554507967</v>
+        <v>86.70724419820405</v>
       </c>
       <c r="AD2" t="n">
-        <v>51724.50689004864</v>
+        <v>70057.35568840869</v>
       </c>
       <c r="AE2" t="n">
-        <v>70771.75225113414</v>
+        <v>95855.56476524533</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.673284011208857e-06</v>
+        <v>1.245021489814367e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.449074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>64017.39554507966</v>
+        <v>86707.24419820405</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.9304381522991</v>
+        <v>68.86408344528427</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.68527237230546</v>
+        <v>94.22287703874733</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.03460778100198</v>
+        <v>85.23037789683087</v>
       </c>
       <c r="AD2" t="n">
-        <v>50930.4381522991</v>
+        <v>68864.08344528427</v>
       </c>
       <c r="AE2" t="n">
-        <v>69685.27237230547</v>
+        <v>94222.87703874733</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.488124095674378e-06</v>
+        <v>1.247690323903087e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.668981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>63034.60778100198</v>
+        <v>85230.37789683088</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.50851722046496</v>
+        <v>76.39799157524162</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.42217859150377</v>
+        <v>104.5311025147188</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.65136014349505</v>
+        <v>94.55480080106426</v>
       </c>
       <c r="AD2" t="n">
-        <v>59508.51722046496</v>
+        <v>76397.99157524161</v>
       </c>
       <c r="AE2" t="n">
-        <v>81422.17859150376</v>
+        <v>104531.1025147188</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.555211496228695e-06</v>
+        <v>1.145817546214781e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.598765432098766</v>
       </c>
       <c r="AH2" t="n">
-        <v>73651.36014349505</v>
+        <v>94554.80080106427</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.25255480923621</v>
+        <v>75.9024145490185</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.96722717753906</v>
+        <v>103.8530321641254</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.62158303991414</v>
+        <v>93.9414445330535</v>
       </c>
       <c r="AD2" t="n">
-        <v>56252.55480923621</v>
+        <v>75902.4145490185</v>
       </c>
       <c r="AE2" t="n">
-        <v>76967.22717753905</v>
+        <v>103853.0321641254</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.391533369296873e-06</v>
+        <v>1.12296719980797e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.344907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>69621.58303991414</v>
+        <v>93941.44453305349</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.53297070721025</v>
+        <v>65.44328618594855</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.98266046333755</v>
+        <v>89.54239131360252</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.73098199106767</v>
+        <v>80.99659116018944</v>
       </c>
       <c r="AD3" t="n">
-        <v>55532.97070721025</v>
+        <v>65443.28618594856</v>
       </c>
       <c r="AE3" t="n">
-        <v>75982.66046333755</v>
+        <v>89542.39131360252</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.527523440984041e-06</v>
+        <v>1.14686011895282e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.275462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>68730.98199106766</v>
+        <v>80996.59116018943</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.38608370175372</v>
+        <v>85.90189724658455</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.4641243511317</v>
+        <v>117.5347655369705</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.92579388676843</v>
+        <v>106.317412475232</v>
       </c>
       <c r="AD2" t="n">
-        <v>65386.08370175372</v>
+        <v>85901.89724658456</v>
       </c>
       <c r="AE2" t="n">
-        <v>89464.1243511317</v>
+        <v>117534.7655369705</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.358673462988717e-06</v>
+        <v>9.162734438303171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.842592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>80925.79388676843</v>
+        <v>106317.412475232</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.85722436783061</v>
+        <v>68.11522064879708</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.16280686063142</v>
+        <v>93.19824992309917</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.6076196795683</v>
+        <v>84.30353975502666</v>
       </c>
       <c r="AD3" t="n">
-        <v>57857.22436783061</v>
+        <v>68115.22064879708</v>
       </c>
       <c r="AE3" t="n">
-        <v>79162.80686063142</v>
+        <v>93198.24992309917</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.345162598056896e-06</v>
+        <v>1.084952092255739e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.244598765432099</v>
       </c>
       <c r="AH3" t="n">
-        <v>71607.61967956831</v>
+        <v>84303.53975502666</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.48036460488915</v>
+        <v>93.89415000513058</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.06610010972425</v>
+        <v>128.4701183545146</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.99312494138503</v>
+        <v>116.2091105677373</v>
       </c>
       <c r="AD2" t="n">
-        <v>69480.36460488915</v>
+        <v>93894.15000513058</v>
       </c>
       <c r="AE2" t="n">
-        <v>95066.10010972424</v>
+        <v>128470.1183545146</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.64829905826867e-06</v>
+        <v>9.963445844077822e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.694444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>85993.12494138503</v>
+        <v>116209.1105677373</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.30191994276306</v>
+        <v>70.8878156923294</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.56179426352364</v>
+        <v>96.99183677991873</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.73203705663789</v>
+        <v>87.73507200656518</v>
       </c>
       <c r="AD2" t="n">
-        <v>52301.91994276307</v>
+        <v>70887.8156923294</v>
       </c>
       <c r="AE2" t="n">
-        <v>71561.79426352364</v>
+        <v>96991.83677991873</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.687183331765935e-06</v>
+        <v>1.23206841386509e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.391203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>64732.0370566379</v>
+        <v>87735.07200656517</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.23248344394987</v>
+        <v>73.48941972516216</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.20327641629676</v>
+        <v>100.5514661923083</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.12141986009468</v>
+        <v>90.95497538380862</v>
       </c>
       <c r="AD2" t="n">
-        <v>54232.48344394987</v>
+        <v>73489.41972516217</v>
       </c>
       <c r="AE2" t="n">
-        <v>74203.27641629677</v>
+        <v>100551.4661923083</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.610049057491176e-06</v>
+        <v>1.180837025119326e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.30246913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>67121.41986009467</v>
+        <v>90954.97538380862</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.32469725894125</v>
+        <v>73.58163354015353</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.3294474261543</v>
+        <v>100.6776372021658</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.23554928585358</v>
+        <v>91.06910480956751</v>
       </c>
       <c r="AD3" t="n">
-        <v>54324.69725894125</v>
+        <v>73581.63354015353</v>
       </c>
       <c r="AE3" t="n">
-        <v>74329.44742615431</v>
+        <v>100677.6372021658</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.60852085331639e-06</v>
+        <v>1.180564022596071e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.30246913580247</v>
       </c>
       <c r="AH3" t="n">
-        <v>67235.54928585357</v>
+        <v>91069.10480956751</v>
       </c>
     </row>
   </sheetData>
